--- a/data/trans_orig/P39A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P39A-Estudios-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>46612</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>34837</v>
+        <v>34275</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>61689</v>
+        <v>61269</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05514848367353565</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04121737140323538</v>
+        <v>0.04055161367893376</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07298673254592257</v>
+        <v>0.07248940252311192</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>55</v>
@@ -764,19 +764,19 @@
         <v>61770</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>46744</v>
+        <v>47703</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>80625</v>
+        <v>82042</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05034116055180762</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03809572087050318</v>
+        <v>0.03887719528207465</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06570762409659624</v>
+        <v>0.06686243433784404</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>100</v>
@@ -785,19 +785,19 @@
         <v>108382</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>89623</v>
+        <v>87473</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>132582</v>
+        <v>129269</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05230194141292162</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04324928181704143</v>
+        <v>0.04221199574741456</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06398022334505261</v>
+        <v>0.06238138631410271</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>108209</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>91196</v>
+        <v>90329</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>128494</v>
+        <v>128423</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1280267163112934</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1078976292041434</v>
+        <v>0.1068714357246688</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1520261736877309</v>
+        <v>0.1519417965028687</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>96</v>
@@ -835,19 +835,19 @@
         <v>104685</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>87642</v>
+        <v>86313</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>125486</v>
+        <v>127231</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.08531654969161978</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07142626909588541</v>
+        <v>0.0703430785343841</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1022689168337875</v>
+        <v>0.10369059879583</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>204</v>
@@ -856,19 +856,19 @@
         <v>212895</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>186965</v>
+        <v>186446</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>242911</v>
+        <v>242028</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1027369050873983</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09022371420765279</v>
+        <v>0.08997332179768291</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1172219633123648</v>
+        <v>0.116795672693202</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>156656</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>130851</v>
+        <v>131573</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>179355</v>
+        <v>179729</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1853456157725028</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1548150763210779</v>
+        <v>0.1556688058268975</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2122022305527467</v>
+        <v>0.2126447131929984</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>189</v>
@@ -906,19 +906,19 @@
         <v>201265</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>175039</v>
+        <v>175688</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>231098</v>
+        <v>227197</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1640268301698772</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1426536526651221</v>
+        <v>0.1431825154481675</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.188340161511575</v>
+        <v>0.1851611828734255</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>336</v>
@@ -927,19 +927,19 @@
         <v>357921</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>322256</v>
+        <v>325461</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>390710</v>
+        <v>394219</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1727222029861723</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1555115616025408</v>
+        <v>0.1570578472778154</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1885454263729268</v>
+        <v>0.1902387218530174</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>106727</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>86933</v>
+        <v>87905</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>130554</v>
+        <v>127331</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.126273039929785</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1028532542687437</v>
+        <v>0.1040037424043861</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1544628082699694</v>
+        <v>0.1506505794078224</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>181</v>
@@ -977,19 +977,19 @@
         <v>192023</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>165790</v>
+        <v>167392</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>217021</v>
+        <v>219034</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.156495088314314</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1351153030577539</v>
+        <v>0.1364212949239995</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1768680129442637</v>
+        <v>0.1785084601162047</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>276</v>
@@ -998,19 +998,19 @@
         <v>298750</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>267280</v>
+        <v>266177</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>332277</v>
+        <v>332215</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1441683084088383</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1289814818794122</v>
+        <v>0.1284490845984536</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1603472388056851</v>
+        <v>0.1603174678621856</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>427005</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>397793</v>
+        <v>397036</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>460009</v>
+        <v>457129</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5052061443128831</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4706438381176237</v>
+        <v>0.4697483505317872</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5442537832438117</v>
+        <v>0.5408467899846904</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>626</v>
@@ -1048,19 +1048,19 @@
         <v>667281</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>632689</v>
+        <v>632611</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>703542</v>
+        <v>698852</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5438203712723814</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5156288813736098</v>
+        <v>0.5155653391065109</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5733723512103885</v>
+        <v>0.5695507501298693</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1020</v>
@@ -1069,19 +1069,19 @@
         <v>1094286</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1047363</v>
+        <v>1046171</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1136671</v>
+        <v>1141326</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5280706421046694</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5054271155199326</v>
+        <v>0.5048518685777019</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5485246128195358</v>
+        <v>0.5507707655369654</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>157395</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>137075</v>
+        <v>133339</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>184639</v>
+        <v>182580</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1026325862143331</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08938234747697631</v>
+        <v>0.08694624762763747</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1203974146460763</v>
+        <v>0.1190552482014756</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>135</v>
@@ -1194,19 +1194,19 @@
         <v>146539</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>125123</v>
+        <v>123035</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>173133</v>
+        <v>171226</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1004560183307991</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08577466553501971</v>
+        <v>0.08434346802131083</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1186865660831789</v>
+        <v>0.1173793541497598</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>284</v>
@@ -1215,19 +1215,19 @@
         <v>303934</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>270207</v>
+        <v>270384</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>341582</v>
+        <v>339698</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.101571520045103</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09030027897640656</v>
+        <v>0.09035954578653572</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1141530770877238</v>
+        <v>0.1135234541696622</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>388807</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>353625</v>
+        <v>356825</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>423009</v>
+        <v>424686</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2535294974584756</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2305885635233491</v>
+        <v>0.232675384327376</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2758314753913462</v>
+        <v>0.2769251197510165</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>293</v>
@@ -1265,19 +1265,19 @@
         <v>315853</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>282190</v>
+        <v>282650</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>348286</v>
+        <v>344704</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2165245406483859</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1934482820354367</v>
+        <v>0.1937631493312096</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2387585367010282</v>
+        <v>0.2363025665864355</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>665</v>
@@ -1286,19 +1286,19 @@
         <v>704659</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>658800</v>
+        <v>654870</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>750906</v>
+        <v>749113</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2354897624876292</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2201641254411041</v>
+        <v>0.2188505462098775</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2509449219958187</v>
+        <v>0.2503455531404077</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>415498</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>380350</v>
+        <v>382175</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>448468</v>
+        <v>452475</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2709340318065537</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2480149687820281</v>
+        <v>0.2492052387120913</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2924325507609967</v>
+        <v>0.2950454194592606</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>318</v>
@@ -1336,19 +1336,19 @@
         <v>346970</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>314088</v>
+        <v>316151</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>383352</v>
+        <v>381718</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2378566215024562</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2153149957491501</v>
+        <v>0.2167293142546319</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2627966966158967</v>
+        <v>0.2616768897700549</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>710</v>
@@ -1357,19 +1357,19 @@
         <v>762468</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>715187</v>
+        <v>713003</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>815274</v>
+        <v>813986</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2548089564965032</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2390080435445438</v>
+        <v>0.2382780603825515</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2724560768285164</v>
+        <v>0.2720255886535976</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>178698</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>152683</v>
+        <v>153728</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>206389</v>
+        <v>206230</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1165236698812796</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09955999145966637</v>
+        <v>0.1002417769948836</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1345802813581033</v>
+        <v>0.1344763061405309</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>174</v>
@@ -1407,19 +1407,19 @@
         <v>187770</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>163556</v>
+        <v>160751</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>216208</v>
+        <v>214468</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1287210961612713</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1121218819265249</v>
+        <v>0.1101985803451296</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1482159418256714</v>
+        <v>0.1470231109474007</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>336</v>
@@ -1428,19 +1428,19 @@
         <v>366468</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>332347</v>
+        <v>326173</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>404424</v>
+        <v>403860</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1224698553760156</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1110667318734982</v>
+        <v>0.1090037229055056</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1351541041465681</v>
+        <v>0.1349658592869752</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>393179</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>358340</v>
+        <v>359153</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>428833</v>
+        <v>429071</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.256380214639358</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2336629237187934</v>
+        <v>0.2341929862664339</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2796294819776265</v>
+        <v>0.2797845709971538</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>428</v>
@@ -1478,19 +1478,19 @@
         <v>461606</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>427093</v>
+        <v>422389</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>498828</v>
+        <v>500074</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3164417233570875</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2927824120696574</v>
+        <v>0.2895581391232794</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3419583981946684</v>
+        <v>0.342813052804859</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>790</v>
@@ -1499,19 +1499,19 @@
         <v>854784</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>801761</v>
+        <v>806320</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>902238</v>
+        <v>910490</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.285659905594749</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2679402671014833</v>
+        <v>0.2694636969717842</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3015186308600287</v>
+        <v>0.3042763049676385</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>43384</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>30954</v>
+        <v>31532</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>57673</v>
+        <v>58837</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1092824029060316</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07797376662478546</v>
+        <v>0.07942912484037583</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1452761397323844</v>
+        <v>0.148208318292688</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>37</v>
@@ -1624,19 +1624,19 @@
         <v>39277</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>28405</v>
+        <v>27979</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>52450</v>
+        <v>53078</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09987491967091029</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07222834198632443</v>
+        <v>0.07114672748484438</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1333713565176024</v>
+        <v>0.1349696979839909</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>77</v>
@@ -1645,19 +1645,19 @@
         <v>82660</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>65824</v>
+        <v>65645</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>101561</v>
+        <v>101457</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1046008367439787</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08329508836831118</v>
+        <v>0.08306916640964915</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1285183587235227</v>
+        <v>0.1283864556198263</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>91417</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>73762</v>
+        <v>73986</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>110297</v>
+        <v>110324</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2302773516961277</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1858043793799214</v>
+        <v>0.1863680450700995</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2778359832056768</v>
+        <v>0.2779035314471087</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>76</v>
@@ -1695,19 +1695,19 @@
         <v>81571</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>65387</v>
+        <v>66736</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>101158</v>
+        <v>97551</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2074222265039826</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1662694472185937</v>
+        <v>0.1696983644411866</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2572290821745609</v>
+        <v>0.2480569558570531</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>163</v>
@@ -1716,19 +1716,19 @@
         <v>172988</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>147906</v>
+        <v>148972</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>199341</v>
+        <v>197021</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.218903663531628</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.187164452988603</v>
+        <v>0.1885136544438177</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2522519142050532</v>
+        <v>0.2493154448281843</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>108414</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>89208</v>
+        <v>90178</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>127164</v>
+        <v>127698</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2730922063204596</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2247144096612022</v>
+        <v>0.2271566076623096</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3203227941765233</v>
+        <v>0.3216687541545194</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>96</v>
@@ -1766,19 +1766,19 @@
         <v>109244</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>88070</v>
+        <v>90897</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>127945</v>
+        <v>130172</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2777898274415088</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2239477676657838</v>
+        <v>0.2311376350569323</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3253427922684765</v>
+        <v>0.3310058053600295</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>190</v>
@@ -1787,19 +1787,19 @@
         <v>217658</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>190272</v>
+        <v>193205</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>244288</v>
+        <v>244390</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2754299435805532</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.240775298796566</v>
+        <v>0.244487399604967</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3091289443042605</v>
+        <v>0.3092581102337195</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>51380</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>38101</v>
+        <v>39067</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>68144</v>
+        <v>67866</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1294244453440415</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09597589739570571</v>
+        <v>0.09840811384270125</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1716542682000595</v>
+        <v>0.1709543399211295</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>39</v>
@@ -1837,19 +1837,19 @@
         <v>41071</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>30680</v>
+        <v>30223</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>55995</v>
+        <v>56294</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1044357668855167</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07801359852894672</v>
+        <v>0.0768533154019691</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1423865111761916</v>
+        <v>0.1431477477369593</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>85</v>
@@ -1858,19 +1858,19 @@
         <v>92450</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>75204</v>
+        <v>75011</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>114762</v>
+        <v>112255</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1169890097889612</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09516529842938182</v>
+        <v>0.09492042481918746</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1452230858303626</v>
+        <v>0.1420510795816209</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>102392</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>83159</v>
+        <v>85102</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>121354</v>
+        <v>123158</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2579235937333395</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2094751901101242</v>
+        <v>0.2143691073993876</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3056877367691526</v>
+        <v>0.3102315895730386</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>106</v>
@@ -1908,19 +1908,19 @@
         <v>122099</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>103660</v>
+        <v>102651</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>140555</v>
+        <v>143572</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3104772594980816</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2635916994402855</v>
+        <v>0.2610262743600913</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.357408266479129</v>
+        <v>0.3650811029857987</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>198</v>
@@ -1929,19 +1929,19 @@
         <v>224491</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>199882</v>
+        <v>198228</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>254047</v>
+        <v>254109</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2840765463548789</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2529356934956173</v>
+        <v>0.2508431731013635</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3214781496195065</v>
+        <v>0.3215570146005192</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>247391</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>216333</v>
+        <v>218267</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>281783</v>
+        <v>280562</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08912494264517296</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07793598617811345</v>
+        <v>0.07863299444209372</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1015150657030161</v>
+        <v>0.1010753904871699</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>227</v>
@@ -2054,19 +2054,19 @@
         <v>247586</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>219071</v>
+        <v>216054</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>281393</v>
+        <v>278789</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08041048834859807</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07114938072371743</v>
+        <v>0.07016973733963254</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09139021181403587</v>
+        <v>0.09054464562132818</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>461</v>
@@ -2075,19 +2075,19 @@
         <v>494976</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>454042</v>
+        <v>450717</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>539436</v>
+        <v>536931</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08454203114085058</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07755050341444555</v>
+        <v>0.07698247342294007</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09213574782758649</v>
+        <v>0.09170783005724897</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>588433</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>540060</v>
+        <v>545513</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>630498</v>
+        <v>632219</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2119889964377413</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1945620272229559</v>
+        <v>0.1965264665549821</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2271432681319997</v>
+        <v>0.2277632095282402</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>465</v>
@@ -2125,19 +2125,19 @@
         <v>502109</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>458833</v>
+        <v>461543</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>545120</v>
+        <v>541977</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1630741719619473</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1490190918872695</v>
+        <v>0.1498990616236024</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1770431449555693</v>
+        <v>0.1760223184399514</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1032</v>
@@ -2146,19 +2146,19 @@
         <v>1090542</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1024994</v>
+        <v>1026149</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1149638</v>
+        <v>1150459</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1862648025647946</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1750691078832748</v>
+        <v>0.1752664451312246</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1963583606352932</v>
+        <v>0.1964985309504575</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>680568</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>630862</v>
+        <v>634592</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>726578</v>
+        <v>728981</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2451814135336475</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2272744224755119</v>
+        <v>0.2286180275370866</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2617569867697329</v>
+        <v>0.2626226810467992</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>603</v>
@@ -2196,19 +2196,19 @@
         <v>657479</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>612524</v>
+        <v>611390</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>707796</v>
+        <v>706158</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2135350273158882</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1989345773231877</v>
+        <v>0.1985663053794704</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2298767829845509</v>
+        <v>0.229344783608854</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1236</v>
@@ -2217,19 +2217,19 @@
         <v>1338047</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1271948</v>
+        <v>1268432</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1410514</v>
+        <v>1406691</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2285386516885826</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2172489445949833</v>
+        <v>0.2166484453868614</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2409160288082312</v>
+        <v>0.2402630606065714</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>336805</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>299782</v>
+        <v>297774</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>376133</v>
+        <v>376315</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1213373561366195</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1079996419177142</v>
+        <v>0.1072761375387638</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1355057717204564</v>
+        <v>0.1355711557984893</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>394</v>
@@ -2267,19 +2267,19 @@
         <v>420864</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>381881</v>
+        <v>383787</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>459340</v>
+        <v>462341</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1366875458168302</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.12402667445935</v>
+        <v>0.1246457312513601</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1491838179189176</v>
+        <v>0.1501584300064109</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>697</v>
@@ -2288,19 +2288,19 @@
         <v>757669</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>700053</v>
+        <v>710365</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>808776</v>
+        <v>817091</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1294099856421317</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1195691559005601</v>
+        <v>0.1213304455824247</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1381390238242542</v>
+        <v>0.1395593551669911</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>922576</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>868539</v>
+        <v>872317</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>978488</v>
+        <v>972400</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3323672912468189</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3129001067673953</v>
+        <v>0.3142612081048253</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3525102743899532</v>
+        <v>0.3503169086757021</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1160</v>
@@ -2338,19 +2338,19 @@
         <v>1250985</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1198825</v>
+        <v>1196415</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1308445</v>
+        <v>1304705</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4062927665567362</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3893524536081058</v>
+        <v>0.3885696332351687</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4249544781331613</v>
+        <v>0.4237400324282424</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2008</v>
@@ -2359,19 +2359,19 @@
         <v>2173561</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2104690</v>
+        <v>2095062</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2251387</v>
+        <v>2251328</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3712445289636405</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.359481344666583</v>
+        <v>0.3578370154231286</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3845372115992718</v>
+        <v>0.3845272388077275</v>
       </c>
     </row>
     <row r="27">
@@ -2702,19 +2702,19 @@
         <v>67168</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>52727</v>
+        <v>53907</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>83228</v>
+        <v>84196</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1021504509707454</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08018881338283436</v>
+        <v>0.08198368392182372</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1265762856362685</v>
+        <v>0.1280477388987021</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>46</v>
@@ -2723,19 +2723,19 @@
         <v>50524</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>38000</v>
+        <v>36568</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>65766</v>
+        <v>65052</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05465224854266284</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0411054127520167</v>
+        <v>0.03955571302971896</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07113912165137901</v>
+        <v>0.07036731546943434</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>113</v>
@@ -2744,19 +2744,19 @@
         <v>117692</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>97172</v>
+        <v>97214</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>137215</v>
+        <v>139477</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07439420317277137</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06142379535743039</v>
+        <v>0.06145026394306403</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0867348938598296</v>
+        <v>0.08816488380275225</v>
       </c>
     </row>
     <row r="5">
@@ -2773,19 +2773,19 @@
         <v>122322</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>105207</v>
+        <v>102197</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>144488</v>
+        <v>142903</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1860305025070183</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1600019433467842</v>
+        <v>0.1554243479285028</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2197413370551577</v>
+        <v>0.2173306218521342</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>131</v>
@@ -2794,19 +2794,19 @@
         <v>144685</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>123004</v>
+        <v>122239</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>170677</v>
+        <v>168541</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.156506999076384</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1330545724606617</v>
+        <v>0.13222718148161</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1846226396118932</v>
+        <v>0.1823126684879622</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>251</v>
@@ -2815,19 +2815,19 @@
         <v>267007</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>237381</v>
+        <v>238054</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>298447</v>
+        <v>298641</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1687780248300836</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1500510114148963</v>
+        <v>0.1504767369319878</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1886515166025823</v>
+        <v>0.1887747207295604</v>
       </c>
     </row>
     <row r="6">
@@ -2844,19 +2844,19 @@
         <v>184144</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>162945</v>
+        <v>164663</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>208731</v>
+        <v>207358</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2800516862475795</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2478115449614519</v>
+        <v>0.2504240693399592</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3174436548325065</v>
+        <v>0.3153564034465244</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>212</v>
@@ -2865,19 +2865,19 @@
         <v>233637</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>207913</v>
+        <v>207163</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>262392</v>
+        <v>262504</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2527275177914936</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2249013851118253</v>
+        <v>0.2240896648628113</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2838317245004248</v>
+        <v>0.2839521429294897</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>400</v>
@@ -2886,19 +2886,19 @@
         <v>417781</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>382270</v>
+        <v>384558</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>454316</v>
+        <v>448101</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2640844211349885</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2416373506199588</v>
+        <v>0.2430833330960707</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2871781392083636</v>
+        <v>0.2832501356095647</v>
       </c>
     </row>
     <row r="7">
@@ -2915,19 +2915,19 @@
         <v>103754</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>88449</v>
+        <v>85847</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>124162</v>
+        <v>122722</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1577922604522758</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.134516303146402</v>
+        <v>0.1305584375186734</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1888284855246828</v>
+        <v>0.1866398468176622</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>168</v>
@@ -2936,19 +2936,19 @@
         <v>184761</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>160649</v>
+        <v>161901</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>211851</v>
+        <v>214045</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1998579386450866</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1737757584265048</v>
+        <v>0.1751294652672529</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2291613878906994</v>
+        <v>0.2315338021151672</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>277</v>
@@ -2957,19 +2957,19 @@
         <v>288515</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>260132</v>
+        <v>257736</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>321266</v>
+        <v>321106</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1823739357162469</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.164432264819021</v>
+        <v>0.1629177316957693</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2030761198246257</v>
+        <v>0.2029751146890982</v>
       </c>
     </row>
     <row r="8">
@@ -2986,19 +2986,19 @@
         <v>180148</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>157172</v>
+        <v>158325</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>200293</v>
+        <v>202402</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2739750998223809</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2390315106320432</v>
+        <v>0.2407852465159423</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3046121218761798</v>
+        <v>0.3078190945412257</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>268</v>
@@ -3007,19 +3007,19 @@
         <v>310856</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>283264</v>
+        <v>281446</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>343108</v>
+        <v>345202</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.336255295944373</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3064084931127955</v>
+        <v>0.3044428787342253</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.371142270384431</v>
+        <v>0.3734072223368608</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>451</v>
@@ -3028,19 +3028,19 @@
         <v>491004</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>453792</v>
+        <v>450898</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>529347</v>
+        <v>530017</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3103694151459097</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.286847184483994</v>
+        <v>0.2850180560265984</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3346063136683377</v>
+        <v>0.3350299278846942</v>
       </c>
     </row>
     <row r="9">
@@ -3132,19 +3132,19 @@
         <v>201845</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>175723</v>
+        <v>178416</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>230679</v>
+        <v>231798</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1258153568537362</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1095324254748753</v>
+        <v>0.1112111532864999</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1437879255405588</v>
+        <v>0.144485926960968</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>180</v>
@@ -3153,19 +3153,19 @@
         <v>183255</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>159240</v>
+        <v>157182</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>212519</v>
+        <v>208881</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1091214067428157</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09482158401655089</v>
+        <v>0.0935960320177284</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1265473896643015</v>
+        <v>0.124380622953491</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>372</v>
@@ -3174,19 +3174,19 @@
         <v>385100</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>349257</v>
+        <v>348347</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>425704</v>
+        <v>425369</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1172775619790017</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1063621110335367</v>
+        <v>0.1060847118228182</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1296430288956245</v>
+        <v>0.1295410616516018</v>
       </c>
     </row>
     <row r="11">
@@ -3203,19 +3203,19 @@
         <v>459680</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>425706</v>
+        <v>422899</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>499670</v>
+        <v>498640</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2865300974326583</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2653535117885527</v>
+        <v>0.2636037317632913</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3114570045739241</v>
+        <v>0.3108148725744139</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>452</v>
@@ -3224,19 +3224,19 @@
         <v>467013</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>428652</v>
+        <v>428274</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>503269</v>
+        <v>505802</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2780887402599515</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2552460705045278</v>
+        <v>0.2550211105581491</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2996779760747814</v>
+        <v>0.3011862103935</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>892</v>
@@ -3245,19 +3245,19 @@
         <v>926692</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>870135</v>
+        <v>877781</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>978677</v>
+        <v>975946</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2822129301040107</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2649891636583909</v>
+        <v>0.2673176341305112</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2980442716878464</v>
+        <v>0.2972126210854477</v>
       </c>
     </row>
     <row r="12">
@@ -3274,19 +3274,19 @@
         <v>448947</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>412963</v>
+        <v>414208</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>485820</v>
+        <v>485063</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2798401935314108</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.257410425237865</v>
+        <v>0.2581863115855886</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3028241692460164</v>
+        <v>0.3023519026115533</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>434</v>
@@ -3295,19 +3295,19 @@
         <v>459011</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>422208</v>
+        <v>422928</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>498338</v>
+        <v>497389</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2733240468148466</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2514090889224602</v>
+        <v>0.2518379804577687</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2967417993158457</v>
+        <v>0.2961766348233138</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>859</v>
@@ -3316,19 +3316,19 @@
         <v>907958</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>856244</v>
+        <v>859081</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>962447</v>
+        <v>961949</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2765076375054222</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2607587923102992</v>
+        <v>0.2616226110425187</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2931014903060399</v>
+        <v>0.2929499358809638</v>
       </c>
     </row>
     <row r="13">
@@ -3345,19 +3345,19 @@
         <v>211201</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>184902</v>
+        <v>184939</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>243348</v>
+        <v>240320</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1316467486621762</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1152544140395831</v>
+        <v>0.1152769811794713</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1516849646000694</v>
+        <v>0.1497974805572683</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>194</v>
@@ -3366,19 +3366,19 @@
         <v>207882</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>181977</v>
+        <v>182560</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>239372</v>
+        <v>236253</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1237858097678053</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.10836050907379</v>
+        <v>0.1087076103156615</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1425371599591921</v>
+        <v>0.1406798881509639</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>388</v>
@@ -3387,19 +3387,19 @@
         <v>419082</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>381580</v>
+        <v>383126</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>462436</v>
+        <v>461084</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1276264249307031</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1162055993166769</v>
+        <v>0.1166762844926457</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1408293205958136</v>
+        <v>0.1404175641761075</v>
       </c>
     </row>
     <row r="14">
@@ -3416,19 +3416,19 @@
         <v>282625</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>251128</v>
+        <v>252010</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>314249</v>
+        <v>314279</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1761676035200185</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1565344853513101</v>
+        <v>0.1570843045923948</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.195879191315351</v>
+        <v>0.1958983844508441</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>340</v>
@@ -3437,19 +3437,19 @@
         <v>362206</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>327405</v>
+        <v>328918</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>397858</v>
+        <v>399105</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2156799964145809</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.194957447701644</v>
+        <v>0.195858630381138</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2369095713851863</v>
+        <v>0.237652110399955</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>604</v>
@@ -3458,19 +3458,19 @@
         <v>644831</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>599482</v>
+        <v>601768</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>692310</v>
+        <v>695136</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1963754454808623</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1825648491010106</v>
+        <v>0.1832610050077005</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2108346597800729</v>
+        <v>0.2116952744947489</v>
       </c>
     </row>
     <row r="15">
@@ -3562,19 +3562,19 @@
         <v>59564</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>46927</v>
+        <v>44897</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>77690</v>
+        <v>75506</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1342993678568516</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1058054558486161</v>
+        <v>0.1012302364124928</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1751686151790295</v>
+        <v>0.1702433600365666</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>46</v>
@@ -3583,19 +3583,19 @@
         <v>47030</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>35325</v>
+        <v>35941</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>61395</v>
+        <v>61362</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1005304891736421</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07551016066671987</v>
+        <v>0.0768258069614448</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1312359748532108</v>
+        <v>0.1311662411719487</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>99</v>
@@ -3604,19 +3604,19 @@
         <v>106594</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>86175</v>
+        <v>87065</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>127845</v>
+        <v>128035</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1169646487895911</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09455903721935958</v>
+        <v>0.09553507818487467</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1402830403762057</v>
+        <v>0.1404912864644833</v>
       </c>
     </row>
     <row r="17">
@@ -3633,19 +3633,19 @@
         <v>123509</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>105630</v>
+        <v>104395</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>144080</v>
+        <v>144502</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2784749093143543</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2381639396766771</v>
+        <v>0.2353789447509515</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3248576969084218</v>
+        <v>0.3258081049545642</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>138</v>
@@ -3654,19 +3654,19 @@
         <v>140413</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>121197</v>
+        <v>119890</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>161353</v>
+        <v>160032</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3001423128511239</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.259067408709988</v>
+        <v>0.2562735100280847</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3449021749365353</v>
+        <v>0.3420777820271072</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>251</v>
@@ -3675,19 +3675,19 @@
         <v>263922</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>239800</v>
+        <v>238430</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>292505</v>
+        <v>296416</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2895975277687722</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2631288590937215</v>
+        <v>0.2616261798297345</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3209616677401713</v>
+        <v>0.3252534793465842</v>
       </c>
     </row>
     <row r="18">
@@ -3704,19 +3704,19 @@
         <v>115707</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>98188</v>
+        <v>96079</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>137250</v>
+        <v>135775</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2608845056669635</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2213833534207966</v>
+        <v>0.21663040715844</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3094579776330514</v>
+        <v>0.3061327283311363</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>120</v>
@@ -3725,19 +3725,19 @@
         <v>124670</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>106578</v>
+        <v>105622</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>145688</v>
+        <v>145341</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2664897551699126</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2278168674167028</v>
+        <v>0.2257740202127039</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3114181371278738</v>
+        <v>0.3106756759668093</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>228</v>
@@ -3746,19 +3746,19 @@
         <v>240376</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>213414</v>
+        <v>213500</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>266608</v>
+        <v>270155</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2637618717277986</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.234176492576985</v>
+        <v>0.2342704427043316</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2925458496124349</v>
+        <v>0.2964376323482911</v>
       </c>
     </row>
     <row r="19">
@@ -3775,19 +3775,19 @@
         <v>47364</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>34803</v>
+        <v>35225</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>63363</v>
+        <v>61817</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1067917418010641</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07847059878183239</v>
+        <v>0.07942075465155736</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1428647452158825</v>
+        <v>0.1393777770978018</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>57</v>
@@ -3796,19 +3796,19 @@
         <v>64166</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>50504</v>
+        <v>49719</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>82924</v>
+        <v>81478</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1371595660501612</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1079556099469957</v>
+        <v>0.1062779296491582</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1772558712399934</v>
+        <v>0.1741654255831034</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>100</v>
@@ -3817,19 +3817,19 @@
         <v>111530</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>91583</v>
+        <v>92300</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>133514</v>
+        <v>132851</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1223805834377804</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1004923038665748</v>
+        <v>0.1012792040100721</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1465031740753454</v>
+        <v>0.1457759815558797</v>
       </c>
     </row>
     <row r="20">
@@ -3846,19 +3846,19 @@
         <v>97374</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>80354</v>
+        <v>80258</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>116135</v>
+        <v>117264</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2195494753607665</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1811740993339031</v>
+        <v>0.1809569035553201</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.261849802099208</v>
+        <v>0.2643952709847731</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>85</v>
@@ -3867,19 +3867,19 @@
         <v>91542</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>74918</v>
+        <v>73309</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>110277</v>
+        <v>110587</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1956778767551603</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1601412448626258</v>
+        <v>0.156702277008031</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2357234394607181</v>
+        <v>0.2363871241465665</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>173</v>
@@ -3888,19 +3888,19 @@
         <v>188916</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>163364</v>
+        <v>165370</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>213338</v>
+        <v>215398</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2072953682760576</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1792566043505505</v>
+        <v>0.1814585345995912</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2340924816398413</v>
+        <v>0.2363528417410697</v>
       </c>
     </row>
     <row r="21">
@@ -3992,19 +3992,19 @@
         <v>328577</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>298589</v>
+        <v>292512</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>367019</v>
+        <v>361328</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1214544788097566</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1103696468363939</v>
+        <v>0.1081233694166294</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1356639216006865</v>
+        <v>0.1335604673489472</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>272</v>
@@ -4013,19 +4013,19 @@
         <v>280809</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>249049</v>
+        <v>249007</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>315156</v>
+        <v>316709</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09141960058447347</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08107992427685515</v>
+        <v>0.08106610004778</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.102601589384774</v>
+        <v>0.1031070883897757</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>584</v>
@@ -4034,19 +4034,19 @@
         <v>609386</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>563233</v>
+        <v>565931</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>656984</v>
+        <v>660972</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1054848359717855</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09749575880675132</v>
+        <v>0.09796277839049915</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1137240086493666</v>
+        <v>0.1144143292937153</v>
       </c>
     </row>
     <row r="23">
@@ -4063,19 +4063,19 @@
         <v>705510</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>656505</v>
+        <v>660197</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>752389</v>
+        <v>754787</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2607831011576852</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2426692220916199</v>
+        <v>0.2440338337001146</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2781115710790629</v>
+        <v>0.2789979644988103</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>721</v>
@@ -4084,19 +4084,19 @@
         <v>752111</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>706774</v>
+        <v>706289</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>804128</v>
+        <v>807866</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2448555513980958</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2300958066805814</v>
+        <v>0.2299380488038964</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2617900290902004</v>
+        <v>0.2630072211996222</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1394</v>
@@ -4105,19 +4105,19 @@
         <v>1457621</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1395493</v>
+        <v>1396024</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1526785</v>
+        <v>1524117</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2523143709355483</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.241560037716208</v>
+        <v>0.2416520555531258</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2642867934713136</v>
+        <v>0.2638249588998027</v>
       </c>
     </row>
     <row r="24">
@@ -4134,19 +4134,19 @@
         <v>748798</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>697747</v>
+        <v>704507</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>797563</v>
+        <v>799839</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2767839847727712</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2579136517622501</v>
+        <v>0.260412563834886</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2948093093837677</v>
+        <v>0.2956508502499008</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>766</v>
@@ -4155,19 +4155,19 @@
         <v>817318</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>767530</v>
+        <v>773748</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>864321</v>
+        <v>876764</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2660843016932206</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2498755310409709</v>
+        <v>0.2518996196173616</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2813864581455039</v>
+        <v>0.2854372490943747</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1487</v>
@@ -4176,19 +4176,19 @@
         <v>1566116</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1499283</v>
+        <v>1496821</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1631767</v>
+        <v>1634502</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2710949283371746</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2595261954594102</v>
+        <v>0.2590999808847033</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2824592100104476</v>
+        <v>0.282932638537284</v>
       </c>
     </row>
     <row r="25">
@@ -4205,19 +4205,19 @@
         <v>362319</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>325876</v>
+        <v>327668</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>404584</v>
+        <v>398396</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1339266624677755</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.120456030481057</v>
+        <v>0.1211183358330521</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1495493861136237</v>
+        <v>0.147262285031398</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>419</v>
@@ -4226,19 +4226,19 @@
         <v>456809</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>418721</v>
+        <v>418047</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>499474</v>
+        <v>499425</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1487178237595815</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1363179722754631</v>
+        <v>0.1360983668345259</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1626075380245268</v>
+        <v>0.1625917535375565</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>765</v>
@@ -4247,19 +4247,19 @@
         <v>819128</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>768189</v>
+        <v>763134</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>874496</v>
+        <v>872896</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1417911712304621</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1329736620793219</v>
+        <v>0.1320986374864868</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1513753221045585</v>
+        <v>0.1510983772544332</v>
       </c>
     </row>
     <row r="26">
@@ -4276,19 +4276,19 @@
         <v>560148</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>515713</v>
+        <v>515507</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>603105</v>
+        <v>603939</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2070517727920115</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.19062713874098</v>
+        <v>0.1905508032820171</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2229303834621489</v>
+        <v>0.2232387421726052</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>693</v>
@@ -4297,19 +4297,19 @@
         <v>764604</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>717643</v>
+        <v>712729</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>815958</v>
+        <v>817777</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2489227225646287</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2336344334700266</v>
+        <v>0.2320344132641114</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.26564143625082</v>
+        <v>0.2662337851403495</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1228</v>
@@ -4318,19 +4318,19 @@
         <v>1324751</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1260891</v>
+        <v>1257604</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1392160</v>
+        <v>1387881</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2293146935250295</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2182604246975494</v>
+        <v>0.2176914261554332</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.24098318611581</v>
+        <v>0.2402424537993513</v>
       </c>
     </row>
     <row r="27">
@@ -4661,19 +4661,19 @@
         <v>37015</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>26474</v>
+        <v>26888</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>51916</v>
+        <v>50495</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.07316606202740371</v>
+        <v>0.07316606202740372</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05233076455939252</v>
+        <v>0.05314766258198719</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1026202865643923</v>
+        <v>0.09981145141005604</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>53</v>
@@ -4682,19 +4682,19 @@
         <v>33155</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>25729</v>
+        <v>25343</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>43578</v>
+        <v>43459</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.04349354980246231</v>
+        <v>0.04349354980246233</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03375235789203478</v>
+        <v>0.03324616576519812</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05716687575651189</v>
+        <v>0.05701021608808576</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>91</v>
@@ -4703,19 +4703,19 @@
         <v>70170</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>56635</v>
+        <v>58107</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>87753</v>
+        <v>86006</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.05533034818618855</v>
+        <v>0.05533034818618853</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04465824133702664</v>
+        <v>0.0458185229567649</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06919502591113109</v>
+        <v>0.06781711460663624</v>
       </c>
     </row>
     <row r="5">
@@ -4732,19 +4732,19 @@
         <v>94417</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>77526</v>
+        <v>78479</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>111768</v>
+        <v>112336</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1866308408846353</v>
+        <v>0.1866308408846354</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1532432629300922</v>
+        <v>0.1551272778240192</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2209284694577625</v>
+        <v>0.2220507404215255</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>183</v>
@@ -4753,19 +4753,19 @@
         <v>111480</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>96433</v>
+        <v>97527</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>129665</v>
+        <v>127288</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1462426965091379</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.126503115471252</v>
+        <v>0.1279387159755061</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1700976511073507</v>
+        <v>0.1669795947233381</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>287</v>
@@ -4774,19 +4774,19 @@
         <v>205897</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>185927</v>
+        <v>184355</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>231086</v>
+        <v>229963</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.1623541170198605</v>
+        <v>0.1623541170198606</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1466073458091679</v>
+        <v>0.1453679808182168</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1822162368951714</v>
+        <v>0.1813309114745928</v>
       </c>
     </row>
     <row r="6">
@@ -4803,19 +4803,19 @@
         <v>120500</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>103637</v>
+        <v>103237</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>139400</v>
+        <v>141805</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2381882536182325</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2048551456558464</v>
+        <v>0.2040647734095793</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2755459744456016</v>
+        <v>0.280300480088507</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>341</v>
@@ -4824,19 +4824,19 @@
         <v>197328</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>176944</v>
+        <v>180711</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>214845</v>
+        <v>215471</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2588601282469268</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.23211983676183</v>
+        <v>0.237062055524285</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2818389187020652</v>
+        <v>0.2826609641906158</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>488</v>
@@ -4845,19 +4845,19 @@
         <v>317828</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>292588</v>
+        <v>292455</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>343158</v>
+        <v>345364</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.2506138156213364</v>
+        <v>0.2506138156213363</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2307118917926304</v>
+        <v>0.2306067681745518</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2705872067635807</v>
+        <v>0.272326210064673</v>
       </c>
     </row>
     <row r="7">
@@ -4874,19 +4874,19 @@
         <v>110457</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>93997</v>
+        <v>94950</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>127686</v>
+        <v>128991</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2183370261838778</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1858004871444692</v>
+        <v>0.1876834202822405</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2523929573545016</v>
+        <v>0.2549724995719668</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>322</v>
@@ -4895,19 +4895,19 @@
         <v>178162</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>162025</v>
+        <v>160670</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>196449</v>
+        <v>195524</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.2337181715643661</v>
+        <v>0.2337181715643662</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2125483963848406</v>
+        <v>0.210771602744511</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2577071880644374</v>
+        <v>0.2564931184085731</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>462</v>
@@ -4916,19 +4916,19 @@
         <v>288620</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>264860</v>
+        <v>263804</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>312609</v>
+        <v>314144</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2275824080874001</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2088475458786178</v>
+        <v>0.2080146425076552</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2464984754118898</v>
+        <v>0.2477091962533281</v>
       </c>
     </row>
     <row r="8">
@@ -4945,19 +4945,19 @@
         <v>143513</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>125434</v>
+        <v>123061</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>163211</v>
+        <v>162748</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2836778172858506</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2479409786198312</v>
+        <v>0.2432506258307111</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3226132180226603</v>
+        <v>0.3216987442218789</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>445</v>
@@ -4966,19 +4966,19 @@
         <v>242170</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>222363</v>
+        <v>223945</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>262450</v>
+        <v>261171</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.3176854538771068</v>
+        <v>0.3176854538771069</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2917017872676837</v>
+        <v>0.2937764573923666</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3442888966332877</v>
+        <v>0.3426114074374517</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>643</v>
@@ -4987,19 +4987,19 @@
         <v>385684</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>358732</v>
+        <v>358299</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>416106</v>
+        <v>410560</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3041193110852144</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2828676022904605</v>
+        <v>0.2825263755163818</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3281080959278689</v>
+        <v>0.3237347597377018</v>
       </c>
     </row>
     <row r="9">
@@ -5091,19 +5091,19 @@
         <v>170494</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>142386</v>
+        <v>143633</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>199422</v>
+        <v>200450</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.09732353581437819</v>
+        <v>0.09732353581437822</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08127847451334025</v>
+        <v>0.08199080597781092</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1138370068274641</v>
+        <v>0.1144236421422868</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>227</v>
@@ -5112,19 +5112,19 @@
         <v>178128</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>156769</v>
+        <v>155103</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>201885</v>
+        <v>201209</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.0961946098570179</v>
+        <v>0.09619460985701789</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08466006309632554</v>
+        <v>0.08376037954553073</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1090243884734629</v>
+        <v>0.108658802595429</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>370</v>
@@ -5133,19 +5133,19 @@
         <v>348622</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>312884</v>
+        <v>312485</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>388232</v>
+        <v>386459</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.09674342094614094</v>
+        <v>0.09674342094614097</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08682604327918411</v>
+        <v>0.08671539608320003</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1077354850248125</v>
+        <v>0.1072434455189948</v>
       </c>
     </row>
     <row r="11">
@@ -5162,19 +5162,19 @@
         <v>475362</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>436752</v>
+        <v>432739</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>519310</v>
+        <v>518308</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2713530040634432</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2493129659193463</v>
+        <v>0.2470222693234382</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2964396507139413</v>
+        <v>0.2958676435213602</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>624</v>
@@ -5183,19 +5183,19 @@
         <v>473536</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>439985</v>
+        <v>442555</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>508123</v>
+        <v>508719</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2557238916903268</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2376055610583999</v>
+        <v>0.2389934207245673</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2744023288938921</v>
+        <v>0.2747241030596858</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1034</v>
@@ -5204,19 +5204,19 @@
         <v>948898</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>892639</v>
+        <v>893899</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1002088</v>
+        <v>1003802</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.2633217594934313</v>
+        <v>0.2633217594934314</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2477098270782222</v>
+        <v>0.2480594736972591</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2780820906133284</v>
+        <v>0.2785578372736393</v>
       </c>
     </row>
     <row r="12">
@@ -5233,19 +5233,19 @@
         <v>499645</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>458222</v>
+        <v>459491</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>540283</v>
+        <v>541245</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2852143049155131</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2615685453339413</v>
+        <v>0.2622927783274384</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3084116160037738</v>
+        <v>0.3089608164866981</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>737</v>
@@ -5254,19 +5254,19 @@
         <v>511724</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>478757</v>
+        <v>478184</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>547520</v>
+        <v>546019</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.2763466070846572</v>
+        <v>0.2763466070846571</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2585434707697049</v>
+        <v>0.2582339923814873</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.295677820301904</v>
+        <v>0.2948672604422984</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1238</v>
@@ -5275,19 +5275,19 @@
         <v>1011369</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>958542</v>
+        <v>961278</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1063972</v>
+        <v>1065872</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.2806575106234027</v>
+        <v>0.2806575106234028</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2659980932143537</v>
+        <v>0.2667571958399915</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2952550266099345</v>
+        <v>0.2957822526619137</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>285821</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>254382</v>
+        <v>254250</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>320241</v>
+        <v>324269</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1631563963338519</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1452101464821605</v>
+        <v>0.1451342964162288</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1828043535715843</v>
+        <v>0.185103745876685</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>412</v>
@@ -5325,19 +5325,19 @@
         <v>269813</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>245096</v>
+        <v>243714</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>297288</v>
+        <v>296341</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.1457072721043384</v>
+        <v>0.1457072721043383</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.132359560788003</v>
+        <v>0.1316129642147899</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1605448359451974</v>
+        <v>0.1600332785187914</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>716</v>
@@ -5346,19 +5346,19 @@
         <v>555634</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>516674</v>
+        <v>513083</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>603324</v>
+        <v>596829</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1541899124495339</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1433783293558705</v>
+        <v>0.1423819050371292</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1674240397127272</v>
+        <v>0.1656216976539339</v>
       </c>
     </row>
     <row r="14">
@@ -5375,19 +5375,19 @@
         <v>320501</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>287991</v>
+        <v>283371</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>355913</v>
+        <v>353813</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1829527588728136</v>
+        <v>0.1829527588728135</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1643952168648382</v>
+        <v>0.1617579436015314</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2031669662969671</v>
+        <v>0.2019684108672907</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>612</v>
@@ -5396,19 +5396,19 @@
         <v>418546</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>387913</v>
+        <v>387337</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>453592</v>
+        <v>449982</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2260276192636597</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2094852638723935</v>
+        <v>0.2091739911930958</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2449536791093822</v>
+        <v>0.2430041729904357</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>941</v>
@@ -5417,19 +5417,19 @@
         <v>739047</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>694119</v>
+        <v>697308</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>787808</v>
+        <v>788547</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.2050873964874909</v>
+        <v>0.205087396487491</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1926198309009521</v>
+        <v>0.1935048750156702</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2186187561641932</v>
+        <v>0.2188237571966945</v>
       </c>
     </row>
     <row r="15">
@@ -5521,19 +5521,19 @@
         <v>42789</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>30473</v>
+        <v>28149</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>58437</v>
+        <v>57336</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0685398998717591</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04881196474108328</v>
+        <v>0.04508857187237968</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09360479501835528</v>
+        <v>0.09184159859360798</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>62</v>
@@ -5542,19 +5542,19 @@
         <v>47993</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>37554</v>
+        <v>37172</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>61035</v>
+        <v>61492</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0727976444511227</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05696409985576504</v>
+        <v>0.05638377121657124</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09258151159841782</v>
+        <v>0.09327364993107011</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>98</v>
@@ -5563,19 +5563,19 @@
         <v>90782</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>74330</v>
+        <v>72909</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>112822</v>
+        <v>110741</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07072676037434915</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05790945984218644</v>
+        <v>0.05680196766379109</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08789793755063448</v>
+        <v>0.08627697391076895</v>
       </c>
     </row>
     <row r="17">
@@ -5592,19 +5592,19 @@
         <v>164687</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>142038</v>
+        <v>144885</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>190328</v>
+        <v>191788</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2637963868317911</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2275171271107783</v>
+        <v>0.2320774278353112</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3048675233327207</v>
+        <v>0.3072056370355674</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>197</v>
@@ -5613,19 +5613,19 @@
         <v>144862</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>125294</v>
+        <v>126201</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>163669</v>
+        <v>162422</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2197342585282615</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1900522153147948</v>
+        <v>0.1914280791459914</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2482623006652936</v>
+        <v>0.246370428156754</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>345</v>
@@ -5634,19 +5634,19 @@
         <v>309549</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>276277</v>
+        <v>280251</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>339065</v>
+        <v>345704</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.241165219966106</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2152431960787091</v>
+        <v>0.2183392317283672</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2641605296652834</v>
+        <v>0.2693328704820985</v>
       </c>
     </row>
     <row r="18">
@@ -5663,19 +5663,19 @@
         <v>189553</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>164195</v>
+        <v>163966</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>215766</v>
+        <v>214835</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3036269904513044</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2630081328427378</v>
+        <v>0.2626411954537579</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3456139631786498</v>
+        <v>0.3441229143583158</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>276</v>
@@ -5684,19 +5684,19 @@
         <v>190233</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>170040</v>
+        <v>171229</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>210635</v>
+        <v>211147</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2885558796261694</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2579248348149401</v>
+        <v>0.2597297834974662</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3195027252807812</v>
+        <v>0.3202781447541804</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>455</v>
@@ -5705,19 +5705,19 @@
         <v>379787</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>347690</v>
+        <v>348797</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>415004</v>
+        <v>413210</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2958861745382533</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2708800455587093</v>
+        <v>0.271742533697044</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3233230634276041</v>
+        <v>0.3219260240818444</v>
       </c>
     </row>
     <row r="19">
@@ -5734,19 +5734,19 @@
         <v>97862</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>79952</v>
+        <v>79483</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>117909</v>
+        <v>117396</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.156755114803193</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1280674241837205</v>
+        <v>0.1273152593722585</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1888664091174313</v>
+        <v>0.1880451896762041</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>153</v>
@@ -5755,19 +5755,19 @@
         <v>104138</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>88902</v>
+        <v>89209</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>120987</v>
+        <v>121930</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1579617205795995</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1348515341018134</v>
+        <v>0.1353175247907728</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1835188700812456</v>
+        <v>0.1849496138378323</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>254</v>
@@ -5776,19 +5776,19 @@
         <v>202000</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>177162</v>
+        <v>178383</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>226777</v>
+        <v>227166</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.1573748510192661</v>
+        <v>0.157374851019266</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1380239101711337</v>
+        <v>0.1389757217640915</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1766787373457388</v>
+        <v>0.1769813087181521</v>
       </c>
     </row>
     <row r="20">
@@ -5805,19 +5805,19 @@
         <v>129405</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>107797</v>
+        <v>110282</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>150632</v>
+        <v>150996</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2072816080419524</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1726694706133336</v>
+        <v>0.1766501833043177</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.241281921121016</v>
+        <v>0.2418652699300391</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>234</v>
@@ -5826,19 +5826,19 @@
         <v>172034</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>153353</v>
+        <v>154134</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>194674</v>
+        <v>194369</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2609504968148469</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2326145904465289</v>
+        <v>0.2337988105790273</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2952915740221252</v>
+        <v>0.2948293307792741</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>374</v>
@@ -5847,19 +5847,19 @@
         <v>301440</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>275275</v>
+        <v>273739</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>332885</v>
+        <v>331726</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2348469941020255</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2144630018388505</v>
+        <v>0.2132656353199163</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2593455138914703</v>
+        <v>0.2584428867893866</v>
       </c>
     </row>
     <row r="21">
@@ -5951,19 +5951,19 @@
         <v>250298</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>213788</v>
+        <v>219060</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>284485</v>
+        <v>284974</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.0868479529414465</v>
+        <v>0.08684795294144647</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07417991984904253</v>
+        <v>0.07600919655466222</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.09871003020521384</v>
+        <v>0.09887976715319322</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>342</v>
@@ -5972,19 +5972,19 @@
         <v>259275</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>234146</v>
+        <v>235537</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>288711</v>
+        <v>287945</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07920916965539515</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07153208574906465</v>
+        <v>0.071956900311397</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08820173079565935</v>
+        <v>0.08796785582716951</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>559</v>
@@ -5993,19 +5993,19 @@
         <v>509573</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>466891</v>
+        <v>471084</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>552641</v>
+        <v>551404</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08278577240120095</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07585164911787766</v>
+        <v>0.07653269304021004</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08978262548944797</v>
+        <v>0.08958166512331392</v>
       </c>
     </row>
     <row r="23">
@@ -6022,19 +6022,19 @@
         <v>734467</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>684079</v>
+        <v>683020</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>793765</v>
+        <v>787963</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.2548441974871928</v>
+        <v>0.2548441974871929</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2373607985169702</v>
+        <v>0.2369933402726116</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2754193800362855</v>
+        <v>0.2734062558035346</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1004</v>
@@ -6043,19 +6043,19 @@
         <v>729878</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>691358</v>
+        <v>685946</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>777283</v>
+        <v>775293</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.2229791056995891</v>
+        <v>0.2229791056995892</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2112111367093372</v>
+        <v>0.2095579291214466</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.237461453319615</v>
+        <v>0.2368535294064873</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1666</v>
@@ -6064,19 +6064,19 @@
         <v>1464345</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1399250</v>
+        <v>1396221</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1535980</v>
+        <v>1525739</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2378988606546758</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.227323511113878</v>
+        <v>0.2268314730332571</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.249536867823939</v>
+        <v>0.2478731181453923</v>
       </c>
     </row>
     <row r="24">
@@ -6093,19 +6093,19 @@
         <v>809699</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>758752</v>
+        <v>760270</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>866918</v>
+        <v>865256</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2809479847687079</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2632706543882311</v>
+        <v>0.2637972222060442</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3008017819201718</v>
+        <v>0.3002253593109051</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1354</v>
@@ -6114,19 +6114,19 @@
         <v>899285</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>854878</v>
+        <v>854519</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>946389</v>
+        <v>945644</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.27473331664764</v>
+        <v>0.2747333166476399</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2611669085167245</v>
+        <v>0.2610573151422211</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2891238493347938</v>
+        <v>0.288896185428861</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>2181</v>
@@ -6135,19 +6135,19 @@
         <v>1708983</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1644782</v>
+        <v>1643414</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1778811</v>
+        <v>1783175</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2776431254789327</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2672128321370556</v>
+        <v>0.2669905887556392</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2889873508813732</v>
+        <v>0.2896963562031055</v>
       </c>
     </row>
     <row r="25">
@@ -6164,19 +6164,19 @@
         <v>494140</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>454311</v>
+        <v>454336</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>533516</v>
+        <v>539990</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1714560317087967</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1576360483474688</v>
+        <v>0.1576449255288098</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1851187489028306</v>
+        <v>0.1873648672640323</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>887</v>
@@ -6185,19 +6185,19 @@
         <v>552113</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>519375</v>
+        <v>516498</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>587264</v>
+        <v>587673</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1686716072544064</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1586699866842568</v>
+        <v>0.1577912965547134</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1794102970543676</v>
+        <v>0.1795353607222209</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1432</v>
@@ -6206,19 +6206,19 @@
         <v>1046253</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>992102</v>
+        <v>987170</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1107981</v>
+        <v>1101921</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1699753201332946</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.161177923856204</v>
+        <v>0.1603766092987909</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1800036291467358</v>
+        <v>0.1790192235366451</v>
       </c>
     </row>
     <row r="26">
@@ -6235,19 +6235,19 @@
         <v>593420</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>549516</v>
+        <v>548494</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>635288</v>
+        <v>640426</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2059038330938559</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1906703072594076</v>
+        <v>0.190315489725475</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2204311401910648</v>
+        <v>0.2222141915916155</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1291</v>
@@ -6256,19 +6256,19 @@
         <v>832750</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>784769</v>
+        <v>791153</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>875995</v>
+        <v>878621</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2544068007429693</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.239748507459365</v>
+        <v>0.2416988344955001</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2676182704901471</v>
+        <v>0.2684204182904231</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1958</v>
@@ -6277,19 +6277,19 @@
         <v>1426170</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1359156</v>
+        <v>1365776</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1484552</v>
+        <v>1492585</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.231696921331896</v>
+        <v>0.2316969213318959</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2208098517128437</v>
+        <v>0.2218853073928554</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2411817444484033</v>
+        <v>0.2424868186399099</v>
       </c>
     </row>
     <row r="27">
